--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Modulo de automatización\T1 - IMPLEMENTACIÓN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\Data de contratos 09-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51A0DB-FB15-4394-B373-C033AFD39354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3085D7-EF3D-4F79-B3F6-82443458F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,10 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L875"/>
+  <dimension ref="A1:O875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -963,7 +964,7 @@
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,8 +1001,11 @@
       <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1009,7 +1013,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1017,7 +1021,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1025,7 +1029,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1033,7 +1037,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1041,7 +1045,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1049,52 +1053,52 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2561,16 +2565,16 @@
         <v>133</v>
       </c>
       <c r="C106" s="5">
-        <v>16990</v>
+        <v>13490</v>
       </c>
       <c r="D106" s="5">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="E106">
         <v>12</v>
       </c>
       <c r="F106" s="5">
-        <v>8990</v>
+        <v>7990</v>
       </c>
       <c r="G106" s="5">
         <v>12</v>
